--- a/IncomeTaxes.xlsx
+++ b/IncomeTaxes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\Public Finance\Slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teaching\Public Finance\Slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB4A4EA-4331-47F3-A31C-2D74854C1088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D6573-E8EE-4A12-8197-CC7CDAC48DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPLETE" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>Effective Tax Rate</t>
   </si>
   <si>
-    <t>Case 1: Percetage of federal tax</t>
-  </si>
-  <si>
     <t>Case 2: Percentage of taxable income</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>Highest Marginal Tax Rate: 20%</t>
+  </si>
+  <si>
+    <t>Case 1: Percentage of federal tax</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -510,6 +510,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -521,63 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -891,30 +873,30 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.69140625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="20.7109375" style="1"/>
+    <col min="1" max="1" width="50.69140625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="25.69140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="20.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -928,7 +910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,7 +930,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -967,7 +949,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,7 +972,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +995,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1018,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1041,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1064,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -1105,20 +1087,20 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="14" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:17" s="10" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>2</v>
@@ -1127,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>0.1</v>
       </c>
@@ -1142,7 +1124,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>0.15</v>
       </c>
@@ -1158,7 +1140,7 @@
         <v>7687.3499999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>0.25</v>
       </c>
@@ -1174,7 +1156,7 @@
         <v>17324.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>0.28000000000000003</v>
       </c>
@@ -1190,7 +1172,7 @@
         <v>20145.72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>0.33</v>
       </c>
@@ -1206,7 +1188,7 @@
         <v>54251.670000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
         <v>0.35</v>
       </c>
@@ -1215,11 +1197,11 @@
         <v>373651</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1211,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>4</v>
       </c>
@@ -1243,19 +1225,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+    <row r="25" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
@@ -1276,7 +1258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="str">
         <f>A5</f>
         <v>Salary</v>
@@ -1306,7 +1288,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="22" t="str">
         <f>A6</f>
         <v>Interest income, corporate bonds</v>
@@ -1336,7 +1318,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
         <v>21</v>
       </c>
@@ -1365,7 +1347,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="str">
         <f>A22</f>
         <v>Standard deduction</v>
@@ -1395,7 +1377,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="22" t="str">
         <f>A23</f>
         <v>Personal exemption</v>
@@ -1425,7 +1407,7 @@
         <v>10950</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>22</v>
       </c>
@@ -1454,7 +1436,7 @@
         <v>143650</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>3</v>
       </c>
@@ -1483,7 +1465,7 @@
         <v>28464.82</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
         <v>23</v>
       </c>
@@ -1506,7 +1488,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>24</v>
       </c>
@@ -1535,21 +1517,21 @@
         <v>27464.82</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="27">
-        <f>B33/B32</f>
+        <f>B35/B32</f>
         <v>0.13080985108820162</v>
       </c>
       <c r="C36" s="27">
-        <f t="shared" ref="C36:G36" si="12">C33/C32</f>
+        <f t="shared" ref="C36:G36" si="12">C35/C32</f>
         <v>0.1303599062133646</v>
       </c>
       <c r="D36" s="27">
         <f t="shared" si="12"/>
-        <v>0.13080985108820162</v>
+        <v>0.1079003436426117</v>
       </c>
       <c r="E36" s="27">
         <f t="shared" si="12"/>
@@ -1561,24 +1543,24 @@
       </c>
       <c r="G36" s="27">
         <f t="shared" si="12"/>
-        <v>0.19815398538113471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.19119262095370693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="27">
-        <f>B33/B29</f>
+        <f>B35/B29</f>
         <v>8.6512878787878791E-2</v>
       </c>
       <c r="C37" s="27">
-        <f t="shared" ref="C37:G37" si="13">C33/C29</f>
+        <f t="shared" ref="C37:G37" si="13">C35/C29</f>
         <v>8.4240151515151518E-2</v>
       </c>
       <c r="D37" s="27">
         <f t="shared" si="13"/>
-        <v>8.6512878787878791E-2</v>
+        <v>7.1361363636363639E-2</v>
       </c>
       <c r="E37" s="27">
         <f t="shared" si="13"/>
@@ -1590,10 +1572,10 @@
       </c>
       <c r="G37" s="27">
         <f t="shared" si="13"/>
-        <v>0.17147481927710842</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.16545072289156626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -1646,26 +1628,26 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.69140625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="20.7109375" style="1"/>
+    <col min="1" max="1" width="50.69140625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="25.69140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="20.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1679,7 +1661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1697,7 +1679,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1696,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1735,7 +1717,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1756,7 +1738,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1777,7 +1759,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1798,7 +1780,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1819,7 +1801,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -1840,20 +1822,20 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="14" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:17" s="10" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>2</v>
@@ -1862,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>0.1</v>
       </c>
@@ -1877,7 +1859,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>0.15</v>
       </c>
@@ -1893,7 +1875,7 @@
         <v>7687.3499999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>0.25</v>
       </c>
@@ -1909,7 +1891,7 @@
         <v>17324.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>0.28000000000000003</v>
       </c>
@@ -1925,7 +1907,7 @@
         <v>20145.72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>0.33</v>
       </c>
@@ -1941,7 +1923,7 @@
         <v>54251.670000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
         <v>0.35</v>
       </c>
@@ -1950,11 +1932,11 @@
         <v>373651</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1964,7 +1946,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>4</v>
       </c>
@@ -1978,19 +1960,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+    <row r="25" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
@@ -2011,7 +1993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="str">
         <f>A5</f>
         <v>Salary</v>
@@ -2041,7 +2023,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="22" t="str">
         <f>A6</f>
         <v>Interest income, corporate bonds</v>
@@ -2071,7 +2053,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
         <v>21</v>
       </c>
@@ -2100,7 +2082,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="str">
         <f>A22</f>
         <v>Standard deduction</v>
@@ -2130,7 +2112,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="22" t="str">
         <f>A23</f>
         <v>Personal exemption</v>
@@ -2160,7 +2142,7 @@
         <v>10950</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>22</v>
       </c>
@@ -2189,7 +2171,7 @@
         <v>143650</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>3</v>
       </c>
@@ -2200,7 +2182,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
         <v>23</v>
       </c>
@@ -2211,7 +2193,7 @@
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>24</v>
       </c>
@@ -2222,7 +2204,7 @@
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
         <v>30</v>
       </c>
@@ -2233,7 +2215,7 @@
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
     </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>31</v>
       </c>
@@ -2244,7 +2226,7 @@
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
     </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -2275,30 +2257,30 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.69140625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="20.7109375" style="1"/>
+    <col min="1" max="1" width="50.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>34</v>
@@ -2307,13 +2289,13 @@
         <v>35</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="14">
         <v>0</v>
       </c>
@@ -2328,7 +2310,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="14">
         <v>25001</v>
       </c>
@@ -2343,7 +2325,7 @@
         <v>13749.85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="17">
@@ -2357,664 +2339,606 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="44">
+      <c r="C8" s="5">
         <v>15000</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="5">
         <v>45000</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="5">
         <v>145000</v>
       </c>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="45">
+      <c r="C9" s="38">
         <v>5000</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="38">
         <v>5000</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="38">
         <v>5000</v>
       </c>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="45">
+      <c r="C10" s="38">
         <f>C8-C9</f>
         <v>10000</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="38">
         <f t="shared" ref="D10:E10" si="0">D8-D9</f>
         <v>40000</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="38">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="45">
+      <c r="C11" s="38">
         <f>IF(C10&lt;=$D$3,C10*$E$3,IF(C10&lt;=$D$4,$F$3+(C10-$C$4)*$E$4,IF(C10&lt;=$D$5,$F$3+$F$4+(C10-$C$5)*$E$5,"Problem")))</f>
         <v>1000</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="38">
         <f t="shared" ref="D11:E11" si="1">IF(D10&lt;=$D$3,D10*$E$3,IF(D10&lt;=$D$4,$F$3+(D10-$C$4)*$E$4,IF(D10&lt;=$D$5,$F$3+$F$4+(D10-$C$5)*$E$5,"Problem")))</f>
         <v>4749.8500000000004</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="38">
         <f t="shared" si="1"/>
         <v>26249.599999999999</v>
       </c>
-      <c r="F11" s="40"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="46">
+      <c r="C12" s="39">
         <f>C11/C10</f>
         <v>0.1</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="39">
         <f t="shared" ref="D12:E12" si="2">D11/D10</f>
         <v>0.11874625000000001</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="39">
         <f t="shared" si="2"/>
         <v>0.18749714285714283</v>
       </c>
-      <c r="F12" s="40"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48">
+      <c r="B13" s="7"/>
+      <c r="C13" s="40">
         <f>C11/C8</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="40">
         <f t="shared" ref="D13:E13" si="3">D11/D8</f>
         <v>0.10555222222222223</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="40">
         <f t="shared" si="3"/>
         <v>0.18103172413793103</v>
       </c>
-      <c r="F13" s="47"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="49">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="41">
         <v>0.25</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="5">
         <f>$B$15*C11</f>
         <v>250</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="5">
         <f t="shared" ref="D15:E15" si="4">$B$15*D11</f>
         <v>1187.4625000000001</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="5">
         <f t="shared" si="4"/>
         <v>6562.4</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="5">
         <f>SUM(C15:E15)</f>
         <v>7999.8624999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="49">
+    <row r="16" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="41">
         <v>4.2104539473684213E-2</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="5">
         <f>B16*C10</f>
         <v>421.04539473684213</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="5">
         <f>B16*D10</f>
         <v>1684.1815789473685</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="5">
         <f>B16*E10</f>
         <v>5894.6355263157902</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="5">
         <f t="shared" ref="F16:F17" si="5">SUM(C16:E16)</f>
         <v>7999.8625000000011</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="50">
+    <row r="17" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="42">
         <v>3.9023719512195118E-2</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="28">
         <f>$B$17*C8</f>
         <v>585.35579268292679</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="28">
         <f t="shared" ref="D17:E17" si="6">$B$17*D8</f>
         <v>1756.0673780487803</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="28">
         <f t="shared" si="6"/>
         <v>5658.4393292682926</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="28">
         <f t="shared" si="5"/>
         <v>7999.8624999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="53" t="s">
+    <row r="18" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="44">
+      <c r="C20" s="5">
         <f>C8</f>
         <v>15000</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="5">
         <f t="shared" ref="D20:E20" si="7">D8</f>
         <v>45000</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="5">
         <f t="shared" si="7"/>
         <v>145000</v>
       </c>
-      <c r="F20" s="40"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="54">
+      <c r="C21" s="44">
         <v>10000</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="44">
         <v>10000</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="44">
         <v>10000</v>
       </c>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="54">
+      <c r="C22" s="44">
         <f>C20-C21</f>
         <v>5000</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="44">
         <f t="shared" ref="D22:E22" si="8">D20-D21</f>
         <v>35000</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="44">
         <f t="shared" si="8"/>
         <v>135000</v>
       </c>
-      <c r="F22" s="40"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="54">
+      <c r="C23" s="44">
         <f>IF(C22&lt;=$D$3,C22*$E$3,IF(C22&lt;=$D$4,$F$3+(C22-$C$4)*$E$4,IF(C22&lt;=$D$5,$F$3+$F$4+(C22-$C$5)*$E$5,"Problem")))</f>
         <v>500</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="44">
         <f t="shared" ref="D23:E23" si="9">IF(D22&lt;=$D$3,D22*$E$3,IF(D22&lt;=$D$4,$F$3+(D22-$C$4)*$E$4,IF(D22&lt;=$D$5,$F$3+$F$4+(D22-$C$5)*$E$5,"Problem")))</f>
         <v>3999.85</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="44">
         <f t="shared" si="9"/>
         <v>24999.599999999999</v>
       </c>
-      <c r="F23" s="40"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="55">
+      <c r="C24" s="45">
         <f>C23/C22</f>
         <v>0.1</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="45">
         <f t="shared" ref="D24" si="10">D23/D22</f>
         <v>0.11428142857142858</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="45">
         <f t="shared" ref="E24" si="11">E23/E22</f>
         <v>0.18518222222222222</v>
       </c>
-      <c r="F24" s="40"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="48">
+      <c r="C25" s="40">
         <f>C23/C20</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="40">
         <f t="shared" ref="D25:E25" si="12">D23/D20</f>
         <v>8.8885555555555551E-2</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="40">
         <f t="shared" si="12"/>
         <v>0.1724110344827586</v>
       </c>
-      <c r="F25" s="40"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="56">
+    </row>
+    <row r="26" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="46">
         <v>0.25</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="5">
         <f>$B$27*C23</f>
         <v>125</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="5">
         <f t="shared" ref="D27:E27" si="13">$B$27*D23</f>
         <v>999.96249999999998</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="5">
         <f t="shared" si="13"/>
         <v>6249.9</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="5">
         <f>SUM(C27:E27)</f>
         <v>7374.8624999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="56">
+    <row r="28" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="46">
         <f>B16</f>
         <v>4.2104539473684213E-2</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="5">
         <f>$B$28*C22</f>
         <v>210.52269736842106</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="5">
         <f t="shared" ref="D28:E28" si="14">$B$28*D22</f>
         <v>1473.6588815789476</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="5">
         <f t="shared" si="14"/>
         <v>5684.1128289473691</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="5">
         <f t="shared" ref="F28:F29" si="15">SUM(C28:E28)</f>
         <v>7368.2944078947376</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="50">
+    <row r="29" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="42">
         <f>B17</f>
         <v>3.9023719512195118E-2</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="28">
         <f>$B$29*C20</f>
         <v>585.35579268292679</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="28">
         <f t="shared" ref="D29:E29" si="16">$B$29*D20</f>
         <v>1756.0673780487803</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="28">
         <f t="shared" si="16"/>
         <v>5658.4393292682926</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="28">
         <f t="shared" si="15"/>
         <v>7999.8624999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+    <row r="30" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="53" t="s">
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="44">
+      <c r="C32" s="5">
         <v>15000</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="5">
         <v>45000</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="5">
         <v>145000</v>
       </c>
-      <c r="F32" s="40"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="54">
+      <c r="C33" s="44">
         <v>5000</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="44">
         <v>5000</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="44">
         <v>5000</v>
       </c>
-      <c r="F33" s="40"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="54">
+      <c r="C34" s="44">
         <f>C32-C33</f>
         <v>10000</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="44">
         <f t="shared" ref="D34:E34" si="17">D32-D33</f>
         <v>40000</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="44">
         <f t="shared" si="17"/>
         <v>140000</v>
       </c>
-      <c r="F34" s="40"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="54">
+      <c r="C35" s="44">
         <f>IF(C34&lt;=$D$3,C34*$E$3,IF(C34&lt;=$D$4,$F$3+(C34-$C$4)*$E$4,IF(C34&lt;=$D$5,$F$3+$F$4+(C34-$C$5)*0.2,"Problem")))</f>
         <v>1000</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="44">
         <f t="shared" ref="D35:E35" si="18">IF(D34&lt;=$D$3,D34*$E$3,IF(D34&lt;=$D$4,$F$3+(D34-$C$4)*$E$4,IF(D34&lt;=$D$5,$F$3+$F$4+(D34-$C$5)*0.2,"Problem")))</f>
         <v>4749.8500000000004</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="44">
         <f t="shared" si="18"/>
         <v>24249.65</v>
       </c>
-      <c r="F35" s="40"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="55">
+      <c r="C36" s="45">
         <f>C35/C34</f>
         <v>0.1</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="45">
         <f t="shared" ref="D36:E36" si="19">D35/D34</f>
         <v>0.11874625000000001</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="45">
         <f t="shared" si="19"/>
         <v>0.17321178571428572</v>
       </c>
-      <c r="F36" s="40"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="55">
+      <c r="C37" s="45">
         <f>C35/C32</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="45">
         <f t="shared" ref="D37:E37" si="20">D35/D32</f>
         <v>0.10555222222222223</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="45">
         <f t="shared" si="20"/>
         <v>0.16723896551724138</v>
       </c>
-      <c r="F37" s="40"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="56">
+    </row>
+    <row r="38" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="46">
         <f>B27</f>
         <v>0.25</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="5">
         <f>$B$39*C35</f>
         <v>250</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="5">
         <f t="shared" ref="D39:E39" si="21">$B$39*D35</f>
         <v>1187.4625000000001</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="5">
         <f t="shared" si="21"/>
         <v>6062.4125000000004</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="5">
         <f>SUM(C39:E39)</f>
         <v>7499.875</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="56">
+    <row r="40" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="46">
         <f t="shared" ref="B40:B41" si="22">B28</f>
         <v>4.2104539473684213E-2</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="5">
         <f>$B$40*C34</f>
         <v>421.04539473684213</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="5">
         <f t="shared" ref="D40:E40" si="23">$B$40*D34</f>
         <v>1684.1815789473685</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="5">
         <f t="shared" si="23"/>
         <v>5894.6355263157902</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="5">
         <f t="shared" ref="F40:F41" si="24">SUM(C40:E40)</f>
         <v>7999.8625000000011</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="50">
+    <row r="41" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="42">
         <f t="shared" si="22"/>
         <v>3.9023719512195118E-2</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="28">
         <f>$B$41*C32</f>
         <v>585.35579268292679</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="28">
         <f t="shared" ref="D41:E41" si="25">$B$41*D32</f>
         <v>1756.0673780487803</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="28">
         <f t="shared" si="25"/>
         <v>5658.4393292682926</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="28">
         <f t="shared" si="24"/>
         <v>7999.8624999999993</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
